--- a/data/pca/factorExposure/factorExposure_2017-04-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01958056626743834</v>
+        <v>0.009935729658375551</v>
       </c>
       <c r="C2">
-        <v>0.0133714921997378</v>
+        <v>-0.04275699032827265</v>
       </c>
       <c r="D2">
-        <v>-0.03441083979008105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02953650194969884</v>
+      </c>
+      <c r="E2">
+        <v>0.03675488887110524</v>
+      </c>
+      <c r="F2">
+        <v>0.008517326760595479</v>
+      </c>
+      <c r="G2">
+        <v>0.09634035230948627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01976441516412406</v>
+        <v>0.04121270953194316</v>
       </c>
       <c r="C3">
-        <v>-0.009970719690783681</v>
+        <v>-0.1022619330503994</v>
       </c>
       <c r="D3">
-        <v>-0.1060933460285035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01782162653194041</v>
+      </c>
+      <c r="E3">
+        <v>0.1009038233056913</v>
+      </c>
+      <c r="F3">
+        <v>0.001466749553216494</v>
+      </c>
+      <c r="G3">
+        <v>0.162754847525618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02411838731621782</v>
+        <v>0.05659615793700615</v>
       </c>
       <c r="C4">
-        <v>0.005277447145312211</v>
+        <v>-0.06797166554524527</v>
       </c>
       <c r="D4">
-        <v>-0.08452013623045949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02446298055158862</v>
+      </c>
+      <c r="E4">
+        <v>0.03291083957895533</v>
+      </c>
+      <c r="F4">
+        <v>0.01071018502463984</v>
+      </c>
+      <c r="G4">
+        <v>0.1003182837017211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01031399078109249</v>
+        <v>0.03679475370945715</v>
       </c>
       <c r="C6">
-        <v>0.01235940229306998</v>
+        <v>-0.05175300680730498</v>
       </c>
       <c r="D6">
-        <v>-0.07959784673977703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01712899104962628</v>
+      </c>
+      <c r="E6">
+        <v>0.03693570485121442</v>
+      </c>
+      <c r="F6">
+        <v>0.008944343144209926</v>
+      </c>
+      <c r="G6">
+        <v>0.08303953414558796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.006040679577587544</v>
+        <v>0.02094736245137602</v>
       </c>
       <c r="C7">
-        <v>0.01143791007574319</v>
+        <v>-0.03969360458130167</v>
       </c>
       <c r="D7">
-        <v>-0.03397647313267483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01400288167029187</v>
+      </c>
+      <c r="E7">
+        <v>0.006545899779621507</v>
+      </c>
+      <c r="F7">
+        <v>-0.003606432590695042</v>
+      </c>
+      <c r="G7">
+        <v>0.1211326215528432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001071286447356835</v>
+        <v>0.004016473113185821</v>
       </c>
       <c r="C8">
-        <v>-0.000197240287430092</v>
+        <v>-0.02460951134428491</v>
       </c>
       <c r="D8">
-        <v>0.001610443688248991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003876248126116569</v>
+      </c>
+      <c r="E8">
+        <v>0.02829938119132517</v>
+      </c>
+      <c r="F8">
+        <v>0.005915615156360961</v>
+      </c>
+      <c r="G8">
+        <v>0.06941640527815113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01572643378633315</v>
+        <v>0.03420004667014365</v>
       </c>
       <c r="C9">
-        <v>0.002723694810657392</v>
+        <v>-0.05071901550460102</v>
       </c>
       <c r="D9">
-        <v>-0.0635215520827188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01650659584183622</v>
+      </c>
+      <c r="E9">
+        <v>0.02311472866625927</v>
+      </c>
+      <c r="F9">
+        <v>0.007279153336265215</v>
+      </c>
+      <c r="G9">
+        <v>0.09993269652569556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1031027381394599</v>
+        <v>0.09863851428521513</v>
       </c>
       <c r="C10">
-        <v>-0.1553629605864279</v>
+        <v>0.1832675434254145</v>
       </c>
       <c r="D10">
-        <v>0.09707504106027551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01526743010620373</v>
+      </c>
+      <c r="E10">
+        <v>0.0197766787975614</v>
+      </c>
+      <c r="F10">
+        <v>-0.02185196416195633</v>
+      </c>
+      <c r="G10">
+        <v>0.05923459708534951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0003495120380756109</v>
+        <v>0.03443601206939115</v>
       </c>
       <c r="C11">
-        <v>0.00130675145244148</v>
+        <v>-0.05383722178540414</v>
       </c>
       <c r="D11">
-        <v>-0.05412618886247735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002503605625705015</v>
+      </c>
+      <c r="E11">
+        <v>0.01803161833490685</v>
+      </c>
+      <c r="F11">
+        <v>0.02028470371855826</v>
+      </c>
+      <c r="G11">
+        <v>0.09092551855697896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004219091814294098</v>
+        <v>0.03597340392283341</v>
       </c>
       <c r="C12">
-        <v>0.003884535562706136</v>
+        <v>-0.04889978412465966</v>
       </c>
       <c r="D12">
-        <v>-0.04733720419259525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006547421070605822</v>
+      </c>
+      <c r="E12">
+        <v>0.00951014622938543</v>
+      </c>
+      <c r="F12">
+        <v>0.001735926890997832</v>
+      </c>
+      <c r="G12">
+        <v>0.08277647259232167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02244565197308267</v>
+        <v>0.0157944839301034</v>
       </c>
       <c r="C13">
-        <v>0.005234147429963075</v>
+        <v>-0.04194645721841096</v>
       </c>
       <c r="D13">
-        <v>-0.03878141881226547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02647334613433712</v>
+      </c>
+      <c r="E13">
+        <v>0.03748411712895708</v>
+      </c>
+      <c r="F13">
+        <v>0.005343074396373693</v>
+      </c>
+      <c r="G13">
+        <v>0.1355187960019767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007037530810033682</v>
+        <v>0.008448562018799318</v>
       </c>
       <c r="C14">
-        <v>0.002162166583040015</v>
+        <v>-0.02950730641684841</v>
       </c>
       <c r="D14">
-        <v>-0.01856562415377368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01016927394369879</v>
+      </c>
+      <c r="E14">
+        <v>0.007071329299031755</v>
+      </c>
+      <c r="F14">
+        <v>-0.007064356308966189</v>
+      </c>
+      <c r="G14">
+        <v>0.1038083778955483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00270864024794449</v>
+        <v>0.03298279545533136</v>
       </c>
       <c r="C16">
-        <v>-0.002459250595269884</v>
+        <v>-0.0469499518025419</v>
       </c>
       <c r="D16">
-        <v>-0.04303884185802043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001995876151095717</v>
+      </c>
+      <c r="E16">
+        <v>0.01576074628911309</v>
+      </c>
+      <c r="F16">
+        <v>0.001739791568386772</v>
+      </c>
+      <c r="G16">
+        <v>0.09201713663617327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01257537607778426</v>
+        <v>0.02269705845608558</v>
       </c>
       <c r="C19">
-        <v>0.004611574928659917</v>
+        <v>-0.05228550544186467</v>
       </c>
       <c r="D19">
-        <v>-0.04333904211999422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01900302360611061</v>
+      </c>
+      <c r="E19">
+        <v>0.07806433157009708</v>
+      </c>
+      <c r="F19">
+        <v>0.0208523184480363</v>
+      </c>
+      <c r="G19">
+        <v>0.1347664211705913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.007023787231669886</v>
+        <v>0.01523085299307025</v>
       </c>
       <c r="C20">
-        <v>0.008734228601551108</v>
+        <v>-0.04171967234965798</v>
       </c>
       <c r="D20">
-        <v>-0.03634835462331313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01440091856163379</v>
+      </c>
+      <c r="E20">
+        <v>0.03793383876067456</v>
+      </c>
+      <c r="F20">
+        <v>-0.01126696758481752</v>
+      </c>
+      <c r="G20">
+        <v>0.1117848099669059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01642910796094424</v>
+        <v>0.01253073236226748</v>
       </c>
       <c r="C21">
-        <v>-0.0007350829329434323</v>
+        <v>-0.03975375228713551</v>
       </c>
       <c r="D21">
-        <v>-0.02552718125716493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01905251976966491</v>
+      </c>
+      <c r="E21">
+        <v>0.05037209134780118</v>
+      </c>
+      <c r="F21">
+        <v>0.0001840069042396565</v>
+      </c>
+      <c r="G21">
+        <v>0.1317191239880016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.00129892336004529</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0001734726018271416</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0006248941918664364</v>
+      </c>
+      <c r="E22">
+        <v>0.003947970269656851</v>
+      </c>
+      <c r="F22">
+        <v>0.002052100636546608</v>
+      </c>
+      <c r="G22">
+        <v>0.005755049770157672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001304455608041558</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0001851721711865285</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0006237013028015454</v>
+      </c>
+      <c r="E23">
+        <v>0.003935116560674588</v>
+      </c>
+      <c r="F23">
+        <v>0.002057691954221956</v>
+      </c>
+      <c r="G23">
+        <v>0.005646773047914248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0002125602101676119</v>
+        <v>0.02837595870815659</v>
       </c>
       <c r="C24">
-        <v>0.009065134645837854</v>
+        <v>-0.05143455907091071</v>
       </c>
       <c r="D24">
-        <v>-0.04638060359633898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007305990058686976</v>
+      </c>
+      <c r="E24">
+        <v>0.01297291050649929</v>
+      </c>
+      <c r="F24">
+        <v>0.01225449381001017</v>
+      </c>
+      <c r="G24">
+        <v>0.09197308810438379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01485677618171722</v>
+        <v>0.04251651393967405</v>
       </c>
       <c r="C25">
-        <v>-0.002647643831353892</v>
+        <v>-0.05875876427024313</v>
       </c>
       <c r="D25">
-        <v>-0.05883925447904043</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01125257313835454</v>
+      </c>
+      <c r="E25">
+        <v>0.004543427866463234</v>
+      </c>
+      <c r="F25">
+        <v>0.0062934378127622</v>
+      </c>
+      <c r="G25">
+        <v>0.09992249478677402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02034787944138124</v>
+        <v>0.01370469471854057</v>
       </c>
       <c r="C26">
-        <v>0.009679471156051138</v>
+        <v>-0.01244191462357658</v>
       </c>
       <c r="D26">
-        <v>-0.001692540047460446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02425057991321185</v>
+      </c>
+      <c r="E26">
+        <v>0.00958300210532978</v>
+      </c>
+      <c r="F26">
+        <v>-0.009007816582169001</v>
+      </c>
+      <c r="G26">
+        <v>0.08228132990430674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1470244557226029</v>
+        <v>0.1247328842015461</v>
       </c>
       <c r="C28">
-        <v>-0.1961855222032071</v>
+        <v>0.2387078384878851</v>
       </c>
       <c r="D28">
-        <v>0.1204491657407867</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006336448676264437</v>
+      </c>
+      <c r="E28">
+        <v>0.009382780898400563</v>
+      </c>
+      <c r="F28">
+        <v>-0.01366864357123207</v>
+      </c>
+      <c r="G28">
+        <v>0.04452202172643711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0111908811092723</v>
+        <v>0.009243169138476401</v>
       </c>
       <c r="C29">
-        <v>-0.004306978694650335</v>
+        <v>-0.02321710142617189</v>
       </c>
       <c r="D29">
-        <v>-0.01970969053993948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009222903923009212</v>
+      </c>
+      <c r="E29">
+        <v>0.004239068741855275</v>
+      </c>
+      <c r="F29">
+        <v>-0.01438486039905802</v>
+      </c>
+      <c r="G29">
+        <v>0.09600055328681399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01603776817562987</v>
+        <v>0.04149785605060825</v>
       </c>
       <c r="C30">
-        <v>0.01969800525274217</v>
+        <v>-0.07069151209869358</v>
       </c>
       <c r="D30">
-        <v>-0.1020928709205206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02914030770158949</v>
+      </c>
+      <c r="E30">
+        <v>0.06157266744928112</v>
+      </c>
+      <c r="F30">
+        <v>0.04581605208007353</v>
+      </c>
+      <c r="G30">
+        <v>0.1285833064963738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02027225128797359</v>
+        <v>0.05353274367178461</v>
       </c>
       <c r="C31">
-        <v>-0.01996642313992755</v>
+        <v>-0.03741089947158707</v>
       </c>
       <c r="D31">
-        <v>-0.03353933030265958</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003776356623602693</v>
+      </c>
+      <c r="E31">
+        <v>0.0003067971560160458</v>
+      </c>
+      <c r="F31">
+        <v>-0.04126878378059413</v>
+      </c>
+      <c r="G31">
+        <v>0.1004885603308902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0004268308813770452</v>
+        <v>0.003112093514034656</v>
       </c>
       <c r="C32">
-        <v>-0.01494359991567261</v>
+        <v>-0.02427295449854807</v>
       </c>
       <c r="D32">
-        <v>-0.005962831067925787</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002959725725991973</v>
+      </c>
+      <c r="E32">
+        <v>0.03499652229042512</v>
+      </c>
+      <c r="F32">
+        <v>0.04239128733837755</v>
+      </c>
+      <c r="G32">
+        <v>0.08307247797638592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01128023702741005</v>
+        <v>0.02835799264216246</v>
       </c>
       <c r="C33">
-        <v>0.003679695843932871</v>
+        <v>-0.0506265187199754</v>
       </c>
       <c r="D33">
-        <v>-0.04410372500354543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01578364353644366</v>
+      </c>
+      <c r="E33">
+        <v>0.04442904748904224</v>
+      </c>
+      <c r="F33">
+        <v>0.01538741427325887</v>
+      </c>
+      <c r="G33">
+        <v>0.1618089968603247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.002125497410456513</v>
+        <v>0.03990413070655394</v>
       </c>
       <c r="C34">
-        <v>-0.01249613008038853</v>
+        <v>-0.0598629405966399</v>
       </c>
       <c r="D34">
-        <v>-0.0578767984559819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.00441338957465162</v>
+      </c>
+      <c r="E34">
+        <v>0.008406458271569798</v>
+      </c>
+      <c r="F34">
+        <v>0.02111492481228368</v>
+      </c>
+      <c r="G34">
+        <v>0.09504951494768368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01644876093186196</v>
+        <v>0.01632576559356887</v>
       </c>
       <c r="C36">
-        <v>-0.004901267597273736</v>
+        <v>-0.009845130699418442</v>
       </c>
       <c r="D36">
-        <v>-0.005061754289692006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01254174069408816</v>
+      </c>
+      <c r="E36">
+        <v>0.00892289527529982</v>
+      </c>
+      <c r="F36">
+        <v>-0.006860318386389183</v>
+      </c>
+      <c r="G36">
+        <v>0.09075094999298704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.008469612180855452</v>
+        <v>0.03142579375609526</v>
       </c>
       <c r="C38">
-        <v>-0.024374905979419</v>
+        <v>-0.03031748769690659</v>
       </c>
       <c r="D38">
-        <v>-0.04320973734297966</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007390054341018387</v>
+      </c>
+      <c r="E38">
+        <v>0.007626042839882361</v>
+      </c>
+      <c r="F38">
+        <v>-0.01766869682308653</v>
+      </c>
+      <c r="G38">
+        <v>0.08633886895509434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006948642156357448</v>
+        <v>0.03641709842610076</v>
       </c>
       <c r="C39">
-        <v>0.02571445596364001</v>
+        <v>-0.08064761282335135</v>
       </c>
       <c r="D39">
-        <v>-0.1012146185467238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01177697300154055</v>
+      </c>
+      <c r="E39">
+        <v>0.02981298111283344</v>
+      </c>
+      <c r="F39">
+        <v>0.02348384799711302</v>
+      </c>
+      <c r="G39">
+        <v>0.08832107236288449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01548742020022363</v>
+        <v>0.01391524355183633</v>
       </c>
       <c r="C40">
-        <v>-0.00353939550371865</v>
+        <v>-0.04028670896507844</v>
       </c>
       <c r="D40">
-        <v>-0.03558723510464078</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01484359719521755</v>
+      </c>
+      <c r="E40">
+        <v>0.03260817171291566</v>
+      </c>
+      <c r="F40">
+        <v>-0.007973421982644039</v>
+      </c>
+      <c r="G40">
+        <v>0.1163086039920734</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01390523135793626</v>
+        <v>0.02069193814133269</v>
       </c>
       <c r="C41">
-        <v>-0.01434651388842408</v>
+        <v>-0.002436805756551259</v>
       </c>
       <c r="D41">
-        <v>0.008821952632183582</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004408229018111905</v>
+      </c>
+      <c r="E41">
+        <v>0.007415050304473966</v>
+      </c>
+      <c r="F41">
+        <v>-0.01555474577946808</v>
+      </c>
+      <c r="G41">
+        <v>0.0850334917651078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.06450652782548343</v>
+        <v>0.009235909520894479</v>
       </c>
       <c r="C42">
-        <v>0.07312375854681123</v>
+        <v>-0.03643316990181839</v>
       </c>
       <c r="D42">
-        <v>-0.1655112245487341</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.09007638395987103</v>
+      </c>
+      <c r="E42">
+        <v>0.02012649993388764</v>
+      </c>
+      <c r="F42">
+        <v>-0.04669487841988001</v>
+      </c>
+      <c r="G42">
+        <v>-0.03536185451977318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01505759363043938</v>
+        <v>0.03532946900340766</v>
       </c>
       <c r="C43">
-        <v>-0.01465575699789039</v>
+        <v>-0.0186766443920796</v>
       </c>
       <c r="D43">
-        <v>0.007434942639570803</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005856710921194583</v>
+      </c>
+      <c r="E43">
+        <v>0.02137260529786159</v>
+      </c>
+      <c r="F43">
+        <v>-0.007231781394311357</v>
+      </c>
+      <c r="G43">
+        <v>0.1203797271979139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002089344297825434</v>
+        <v>0.01382104807131991</v>
       </c>
       <c r="C44">
-        <v>0.002294514472765907</v>
+        <v>-0.05915352306141577</v>
       </c>
       <c r="D44">
-        <v>-0.05672335736000439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007038945239126069</v>
+      </c>
+      <c r="E44">
+        <v>0.02521566708177191</v>
+      </c>
+      <c r="F44">
+        <v>-0.003634672921056081</v>
+      </c>
+      <c r="G44">
+        <v>0.1126088893777431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01107581092266573</v>
+        <v>0.008044399981493663</v>
       </c>
       <c r="C46">
-        <v>0.0007714924260115913</v>
+        <v>-0.0147177638356171</v>
       </c>
       <c r="D46">
-        <v>0.003659147355433548</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01266538732434796</v>
+      </c>
+      <c r="E46">
+        <v>0.00167126545692178</v>
+      </c>
+      <c r="F46">
+        <v>-0.01488760195569003</v>
+      </c>
+      <c r="G46">
+        <v>0.1051262875511953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.01469195492543765</v>
+        <v>0.07744899255300969</v>
       </c>
       <c r="C47">
-        <v>-0.02308876610859025</v>
+        <v>-0.06874508977822638</v>
       </c>
       <c r="D47">
-        <v>-0.07359802789638942</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004776794917575876</v>
+      </c>
+      <c r="E47">
+        <v>-0.00563308892865536</v>
+      </c>
+      <c r="F47">
+        <v>-0.05345747661505085</v>
+      </c>
+      <c r="G47">
+        <v>0.08533741101387701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.009102234813609352</v>
+        <v>0.01896631846115265</v>
       </c>
       <c r="C48">
-        <v>-0.01078630931573514</v>
+        <v>-0.0131296694762465</v>
       </c>
       <c r="D48">
-        <v>-0.01869487725888903</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002226327732389365</v>
+      </c>
+      <c r="E48">
+        <v>0.005070002435094094</v>
+      </c>
+      <c r="F48">
+        <v>-0.01840509087494712</v>
+      </c>
+      <c r="G48">
+        <v>0.09642956231668738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.02216403450295033</v>
+        <v>0.07580489228072272</v>
       </c>
       <c r="C50">
-        <v>-0.03079152012386568</v>
+        <v>-0.0717939123672859</v>
       </c>
       <c r="D50">
-        <v>-0.07064921999438581</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002240625245416821</v>
+      </c>
+      <c r="E50">
+        <v>-0.002936156276938244</v>
+      </c>
+      <c r="F50">
+        <v>-0.05670274303560849</v>
+      </c>
+      <c r="G50">
+        <v>0.09361480251936903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008451959541373793</v>
+        <v>0.01466082737932304</v>
       </c>
       <c r="C51">
-        <v>-0.001840514859571097</v>
+        <v>-0.03617221854147577</v>
       </c>
       <c r="D51">
-        <v>-0.01876906226154575</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01069659281633269</v>
+      </c>
+      <c r="E51">
+        <v>0.02590497328885394</v>
+      </c>
+      <c r="F51">
+        <v>0.02462875520704272</v>
+      </c>
+      <c r="G51">
+        <v>0.1229879127336573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.02447663718720434</v>
+        <v>0.08207842750384353</v>
       </c>
       <c r="C53">
-        <v>-0.03287422609474133</v>
+        <v>-0.08541804393895794</v>
       </c>
       <c r="D53">
-        <v>-0.1298982338830993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003493759713825277</v>
+      </c>
+      <c r="E53">
+        <v>-0.02570108257035524</v>
+      </c>
+      <c r="F53">
+        <v>-0.06366567613453215</v>
+      </c>
+      <c r="G53">
+        <v>0.09389776732987103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01338293932775543</v>
+        <v>0.03216441149676982</v>
       </c>
       <c r="C54">
-        <v>-0.02466429414715748</v>
+        <v>-0.01884837300994674</v>
       </c>
       <c r="D54">
-        <v>0.004486492823003248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001494368042374814</v>
+      </c>
+      <c r="E54">
+        <v>0.01811255684303723</v>
+      </c>
+      <c r="F54">
+        <v>-0.005206593232648568</v>
+      </c>
+      <c r="G54">
+        <v>0.1069248438154754</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.01401274548845969</v>
+        <v>0.07230273715266786</v>
       </c>
       <c r="C55">
-        <v>-0.020138890364816</v>
+        <v>-0.06858964504559401</v>
       </c>
       <c r="D55">
-        <v>-0.1041766978053899</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005033389346200124</v>
+      </c>
+      <c r="E55">
+        <v>-0.02348186771670085</v>
+      </c>
+      <c r="F55">
+        <v>-0.06386786378874552</v>
+      </c>
+      <c r="G55">
+        <v>0.0705236522364458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.02556739288595098</v>
+        <v>0.1365390175361774</v>
       </c>
       <c r="C56">
-        <v>-0.04082667203542717</v>
+        <v>-0.1074081015349196</v>
       </c>
       <c r="D56">
-        <v>-0.1605027178714385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01246963864637184</v>
+      </c>
+      <c r="E56">
+        <v>-0.03342664609335613</v>
+      </c>
+      <c r="F56">
+        <v>-0.08067094998229224</v>
+      </c>
+      <c r="G56">
+        <v>0.0445850148018415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02202144910378879</v>
+        <v>0.005371157136134963</v>
       </c>
       <c r="C57">
-        <v>0.008450537268517454</v>
+        <v>-0.007386508802467515</v>
       </c>
       <c r="D57">
-        <v>-0.03490136182856118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02315748838124656</v>
+      </c>
+      <c r="E57">
+        <v>0.02600613543283587</v>
+      </c>
+      <c r="F57">
+        <v>0.009435819746839928</v>
+      </c>
+      <c r="G57">
+        <v>0.02381733893704543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01676902218009286</v>
+        <v>0.05351686912831707</v>
       </c>
       <c r="C58">
-        <v>-0.01988237768632735</v>
+        <v>-0.0472703244434581</v>
       </c>
       <c r="D58">
-        <v>-0.129968992954134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02092224845587084</v>
+      </c>
+      <c r="E58">
+        <v>0.9097617888321734</v>
+      </c>
+      <c r="F58">
+        <v>-0.2817903535657879</v>
+      </c>
+      <c r="G58">
+        <v>-0.2250623968993607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1584310096191366</v>
+        <v>0.159898396990434</v>
       </c>
       <c r="C59">
-        <v>-0.2199832258165657</v>
+        <v>0.2049508137370046</v>
       </c>
       <c r="D59">
-        <v>0.1036023720178002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01162366809817903</v>
+      </c>
+      <c r="E59">
+        <v>0.01943248661039395</v>
+      </c>
+      <c r="F59">
+        <v>-0.003238627872999979</v>
+      </c>
+      <c r="G59">
+        <v>0.03926876679443865</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1308434286951884</v>
+        <v>0.2887089841263153</v>
       </c>
       <c r="C60">
-        <v>-0.1487461348274414</v>
+        <v>-0.1079628552500701</v>
       </c>
       <c r="D60">
-        <v>-0.1475574956926933</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01150789826248073</v>
+      </c>
+      <c r="E60">
+        <v>0.002607914439964439</v>
+      </c>
+      <c r="F60">
+        <v>0.3366689676283096</v>
+      </c>
+      <c r="G60">
+        <v>-0.1649609687006186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001767491751658958</v>
+        <v>0.03924503553345288</v>
       </c>
       <c r="C61">
-        <v>0.003509024064104797</v>
+        <v>-0.06654542892625441</v>
       </c>
       <c r="D61">
-        <v>-0.07726590301065953</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005493380291724644</v>
+      </c>
+      <c r="E61">
+        <v>0.02402877582098417</v>
+      </c>
+      <c r="F61">
+        <v>0.01408454741825922</v>
+      </c>
+      <c r="G61">
+        <v>0.09562869989669416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006397682157274829</v>
+        <v>0.0156724418217739</v>
       </c>
       <c r="C63">
-        <v>0.004337063130090781</v>
+        <v>-0.03061536164279789</v>
       </c>
       <c r="D63">
-        <v>-0.02386722376811329</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008593404841295216</v>
+      </c>
+      <c r="E63">
+        <v>0.00357301639509088</v>
+      </c>
+      <c r="F63">
+        <v>-0.01911327049754819</v>
+      </c>
+      <c r="G63">
+        <v>0.09403503337465408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02137425794922647</v>
+        <v>0.04908849474443586</v>
       </c>
       <c r="C64">
-        <v>-0.02005652162696368</v>
+        <v>-0.04732261860855887</v>
       </c>
       <c r="D64">
-        <v>-0.06420398655876021</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006587759448703554</v>
+      </c>
+      <c r="E64">
+        <v>0.01004576499660282</v>
+      </c>
+      <c r="F64">
+        <v>0.008351542614517402</v>
+      </c>
+      <c r="G64">
+        <v>0.10350747538667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0226103331635099</v>
+        <v>0.07523576886314885</v>
       </c>
       <c r="C65">
-        <v>-0.001040004380324046</v>
+        <v>-0.05811854885812159</v>
       </c>
       <c r="D65">
-        <v>-0.1153771294682846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01664972433674072</v>
+      </c>
+      <c r="E65">
+        <v>0.03868499568733524</v>
+      </c>
+      <c r="F65">
+        <v>0.02955940809441605</v>
+      </c>
+      <c r="G65">
+        <v>0.03935351262754275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005708920594848349</v>
+        <v>0.05126707017540874</v>
       </c>
       <c r="C66">
-        <v>0.0233754589427229</v>
+        <v>-0.1074793935350712</v>
       </c>
       <c r="D66">
-        <v>-0.1363743758184813</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01162509791269431</v>
+      </c>
+      <c r="E66">
+        <v>0.04048392177349181</v>
+      </c>
+      <c r="F66">
+        <v>0.03493599212170372</v>
+      </c>
+      <c r="G66">
+        <v>0.1029423506072008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.02299726241803232</v>
+        <v>0.05417487638004014</v>
       </c>
       <c r="C67">
-        <v>-0.03867507020404083</v>
+        <v>-0.03364555772709846</v>
       </c>
       <c r="D67">
-        <v>-0.06176017497446866</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005939419377537826</v>
+      </c>
+      <c r="E67">
+        <v>-0.001214994451164972</v>
+      </c>
+      <c r="F67">
+        <v>-0.01685378111066681</v>
+      </c>
+      <c r="G67">
+        <v>0.07496517855735607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.172124105568475</v>
+        <v>0.1553110600939069</v>
       </c>
       <c r="C68">
-        <v>-0.20691910072147</v>
+        <v>0.2685650806557083</v>
       </c>
       <c r="D68">
-        <v>0.1468631237822271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005601463444594489</v>
+      </c>
+      <c r="E68">
+        <v>0.0123266423733136</v>
+      </c>
+      <c r="F68">
+        <v>-0.03756619594070128</v>
+      </c>
+      <c r="G68">
+        <v>0.0286009848555958</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.01874299148343393</v>
+        <v>0.08287635665458666</v>
       </c>
       <c r="C69">
-        <v>-0.03515198958927315</v>
+        <v>-0.07024244662881968</v>
       </c>
       <c r="D69">
-        <v>-0.07997641341548856</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008871063381140158</v>
+      </c>
+      <c r="E69">
+        <v>-0.0210316973183609</v>
+      </c>
+      <c r="F69">
+        <v>-0.03645174978874569</v>
+      </c>
+      <c r="G69">
+        <v>0.1029695125557168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1376942025022677</v>
+        <v>0.1403179928612384</v>
       </c>
       <c r="C71">
-        <v>-0.1758296964276579</v>
+        <v>0.2297223315108906</v>
       </c>
       <c r="D71">
-        <v>0.1017488194105574</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002891187652913793</v>
+      </c>
+      <c r="E71">
+        <v>0.03287353838065216</v>
+      </c>
+      <c r="F71">
+        <v>-0.0234933696240891</v>
+      </c>
+      <c r="G71">
+        <v>0.06715374817999227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00713037382134529</v>
+        <v>0.08597624654291683</v>
       </c>
       <c r="C72">
-        <v>-0.01902867845255372</v>
+        <v>-0.06779953968149614</v>
       </c>
       <c r="D72">
-        <v>-0.1044412336488776</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008492253588749544</v>
+      </c>
+      <c r="E72">
+        <v>-0.007399677124844854</v>
+      </c>
+      <c r="F72">
+        <v>0.03933520752082124</v>
+      </c>
+      <c r="G72">
+        <v>0.08883887566851328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1578971873357182</v>
+        <v>0.3771370466132057</v>
       </c>
       <c r="C73">
-        <v>-0.1684553703028615</v>
+        <v>-0.1155695293767913</v>
       </c>
       <c r="D73">
-        <v>-0.270255163117652</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02046395760234799</v>
+      </c>
+      <c r="E73">
+        <v>0.08355225146322666</v>
+      </c>
+      <c r="F73">
+        <v>0.5741435773672531</v>
+      </c>
+      <c r="G73">
+        <v>-0.2993106145296753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.02414261624778746</v>
+        <v>0.1050323218736933</v>
       </c>
       <c r="C74">
-        <v>-0.04123908614023013</v>
+        <v>-0.1092053727000838</v>
       </c>
       <c r="D74">
-        <v>-0.1707830274864263</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009469347266891696</v>
+      </c>
+      <c r="E74">
+        <v>-0.008648853423059223</v>
+      </c>
+      <c r="F74">
+        <v>-0.06905638910156367</v>
+      </c>
+      <c r="G74">
+        <v>0.08387352137052122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.06576053457386563</v>
+        <v>0.2473021722193581</v>
       </c>
       <c r="C75">
-        <v>-0.1049347541842734</v>
+        <v>-0.1512924041832949</v>
       </c>
       <c r="D75">
-        <v>-0.2984450746735623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03071925455022937</v>
+      </c>
+      <c r="E75">
+        <v>-0.07184960041979221</v>
+      </c>
+      <c r="F75">
+        <v>-0.1674703791294135</v>
+      </c>
+      <c r="G75">
+        <v>-0.01374749995981965</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.02979831990505244</v>
+        <v>0.1191641979561875</v>
       </c>
       <c r="C76">
-        <v>-0.05867202769124936</v>
+        <v>-0.1094797519666934</v>
       </c>
       <c r="D76">
-        <v>-0.2087884859806994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01805731562321417</v>
+      </c>
+      <c r="E76">
+        <v>-0.02705442699224282</v>
+      </c>
+      <c r="F76">
+        <v>-0.1056032048107426</v>
+      </c>
+      <c r="G76">
+        <v>0.06271310763308521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01759495459632627</v>
+        <v>0.06888168237516079</v>
       </c>
       <c r="C77">
-        <v>-0.005328542477534704</v>
+        <v>-0.05928299050224824</v>
       </c>
       <c r="D77">
-        <v>-0.07409033922483353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01094704257528689</v>
+      </c>
+      <c r="E77">
+        <v>0.04861474283332831</v>
+      </c>
+      <c r="F77">
+        <v>0.009788249998839958</v>
+      </c>
+      <c r="G77">
+        <v>0.0652302954402437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008505381832503458</v>
+        <v>0.04346039121643866</v>
       </c>
       <c r="C78">
-        <v>-0.004651596265265565</v>
+        <v>-0.04960802951810234</v>
       </c>
       <c r="D78">
-        <v>-0.06647979018179982</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005937721332057068</v>
+      </c>
+      <c r="E78">
+        <v>0.02939025891076627</v>
+      </c>
+      <c r="F78">
+        <v>0.03741748247480959</v>
+      </c>
+      <c r="G78">
+        <v>0.1045248067570614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0002019952111789428</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0001103691236155085</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>3.103353610423415e-05</v>
+      </c>
+      <c r="E79">
+        <v>0.0006470274983457712</v>
+      </c>
+      <c r="F79">
+        <v>0.0004677639958454798</v>
+      </c>
+      <c r="G79">
+        <v>0.0007043328414060643</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02755480559399753</v>
+        <v>0.0432227456802249</v>
       </c>
       <c r="C80">
-        <v>-0.01726172913049106</v>
+        <v>-0.05158198239285353</v>
       </c>
       <c r="D80">
-        <v>-0.08472872437835538</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01323996157479983</v>
+      </c>
+      <c r="E80">
+        <v>0.02454140732661463</v>
+      </c>
+      <c r="F80">
+        <v>0.01324038947957771</v>
+      </c>
+      <c r="G80">
+        <v>0.05398666705929468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.03957730417975092</v>
+        <v>0.1371206781765071</v>
       </c>
       <c r="C81">
-        <v>-0.06151162603144597</v>
+        <v>-0.09575058934872659</v>
       </c>
       <c r="D81">
-        <v>-0.1687970505403096</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01479792682746949</v>
+      </c>
+      <c r="E81">
+        <v>-0.03503133363167502</v>
+      </c>
+      <c r="F81">
+        <v>-0.1255619348474092</v>
+      </c>
+      <c r="G81">
+        <v>0.02514212124996684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1331930920555397</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07842976593788996</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.009269610948183273</v>
+      </c>
+      <c r="E82">
+        <v>-0.1010411791264671</v>
+      </c>
+      <c r="F82">
+        <v>-0.04901517566917583</v>
+      </c>
+      <c r="G82">
+        <v>0.07470623678166388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01394807740775809</v>
+        <v>0.03615552046601479</v>
       </c>
       <c r="C83">
-        <v>-0.01198949600985343</v>
+        <v>-0.02917591653397568</v>
       </c>
       <c r="D83">
-        <v>-0.03108228402500186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005995504674684781</v>
+      </c>
+      <c r="E83">
+        <v>0.03144290208792525</v>
+      </c>
+      <c r="F83">
+        <v>0.02989938609596578</v>
+      </c>
+      <c r="G83">
+        <v>0.0593844041894632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.06335688720832676</v>
+        <v>0.2126458091118605</v>
       </c>
       <c r="C85">
-        <v>-0.08134286793461647</v>
+        <v>-0.1470291556994797</v>
       </c>
       <c r="D85">
-        <v>-0.2779149056092283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01718073436682839</v>
+      </c>
+      <c r="E85">
+        <v>-0.1041407911034996</v>
+      </c>
+      <c r="F85">
+        <v>-0.1201101489500023</v>
+      </c>
+      <c r="G85">
+        <v>-0.05692906573403976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01528496228156699</v>
+        <v>0.0147551817991629</v>
       </c>
       <c r="C86">
-        <v>-0.01139556936451725</v>
+        <v>-0.02517679143564337</v>
       </c>
       <c r="D86">
-        <v>-0.04735137094749411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0117269449942578</v>
+      </c>
+      <c r="E86">
+        <v>0.05203202236034101</v>
+      </c>
+      <c r="F86">
+        <v>0.01943236578478448</v>
+      </c>
+      <c r="G86">
+        <v>0.1904681057473967</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.002882893114105134</v>
+        <v>0.02172318553626146</v>
       </c>
       <c r="C87">
-        <v>0.01068145489784951</v>
+        <v>-0.02227477055658348</v>
       </c>
       <c r="D87">
-        <v>-0.04640480663678829</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01207142841132483</v>
+      </c>
+      <c r="E87">
+        <v>0.09458552728518932</v>
+      </c>
+      <c r="F87">
+        <v>0.008916869996571781</v>
+      </c>
+      <c r="G87">
+        <v>0.1232869984864054</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03944690128468628</v>
+        <v>0.09456162314366447</v>
       </c>
       <c r="C88">
-        <v>-0.0143468550907534</v>
+        <v>-0.06867831405107903</v>
       </c>
       <c r="D88">
-        <v>-0.05803725741999977</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02213300595076088</v>
+      </c>
+      <c r="E88">
+        <v>-0.003448400154184493</v>
+      </c>
+      <c r="F88">
+        <v>-0.02023556418261446</v>
+      </c>
+      <c r="G88">
+        <v>0.09884670048780952</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2503479847808378</v>
+        <v>0.2319501823302431</v>
       </c>
       <c r="C89">
-        <v>-0.3144877784644998</v>
+        <v>0.3688158191733268</v>
       </c>
       <c r="D89">
-        <v>0.1822278378488443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0002658629006969786</v>
+      </c>
+      <c r="E89">
+        <v>-0.01874885294674749</v>
+      </c>
+      <c r="F89">
+        <v>-0.02760721127636827</v>
+      </c>
+      <c r="G89">
+        <v>0.06944327388802519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2047435994554332</v>
+        <v>0.2075909363983778</v>
       </c>
       <c r="C90">
-        <v>-0.2627395846231554</v>
+        <v>0.3183564610024507</v>
       </c>
       <c r="D90">
-        <v>0.1686307562166533</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004378292283713846</v>
+      </c>
+      <c r="E90">
+        <v>0.001440730723365122</v>
+      </c>
+      <c r="F90">
+        <v>-0.04718945718781463</v>
+      </c>
+      <c r="G90">
+        <v>0.05030963820859388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.05478564118683096</v>
+        <v>0.1854531474231158</v>
       </c>
       <c r="C91">
-        <v>-0.09109754936860745</v>
+        <v>-0.1422906206009487</v>
       </c>
       <c r="D91">
-        <v>-0.2280716899084078</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02178547285122301</v>
+      </c>
+      <c r="E91">
+        <v>-0.0648590088554262</v>
+      </c>
+      <c r="F91">
+        <v>-0.141080614333975</v>
+      </c>
+      <c r="G91">
+        <v>0.0357313132700735</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1641078592805135</v>
+        <v>0.1983754989549285</v>
       </c>
       <c r="C92">
-        <v>-0.2594334004339581</v>
+        <v>0.2571707001314532</v>
       </c>
       <c r="D92">
-        <v>0.06986595845899643</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03775878874532452</v>
+      </c>
+      <c r="E92">
+        <v>0.04407806392848027</v>
+      </c>
+      <c r="F92">
+        <v>-0.05780771401381365</v>
+      </c>
+      <c r="G92">
+        <v>0.1161564669789021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2139961837786097</v>
+        <v>0.2307591062196321</v>
       </c>
       <c r="C93">
-        <v>-0.2832372975022082</v>
+        <v>0.3144481497919664</v>
       </c>
       <c r="D93">
-        <v>0.1358307914654693</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01130865659899144</v>
+      </c>
+      <c r="E93">
+        <v>0.005703025795262395</v>
+      </c>
+      <c r="F93">
+        <v>-0.0431305979033506</v>
+      </c>
+      <c r="G93">
+        <v>0.05899269544572665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.103475790613834</v>
+        <v>0.3189376104146652</v>
       </c>
       <c r="C94">
-        <v>-0.1223908693766464</v>
+        <v>-0.1785876507680225</v>
       </c>
       <c r="D94">
-        <v>-0.3099423681803901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01847033237833774</v>
+      </c>
+      <c r="E94">
+        <v>-0.2215899173066971</v>
+      </c>
+      <c r="F94">
+        <v>-0.4772371652319231</v>
+      </c>
+      <c r="G94">
+        <v>-0.4206323499740449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.001137525476488658</v>
+        <v>0.1014977369589906</v>
       </c>
       <c r="C95">
-        <v>-0.01154522726398331</v>
+        <v>-0.08826824519731033</v>
       </c>
       <c r="D95">
-        <v>-0.1231175597236746</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01017485351026471</v>
+      </c>
+      <c r="E95">
+        <v>0.0822777822480444</v>
+      </c>
+      <c r="F95">
+        <v>0.2029788434015588</v>
+      </c>
+      <c r="G95">
+        <v>-0.01330722720387897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.08732771639623664</v>
+        <v>0.1959618636043502</v>
       </c>
       <c r="C98">
-        <v>-0.1362623284623169</v>
+        <v>-0.04311403853292216</v>
       </c>
       <c r="D98">
-        <v>-0.1409682933703071</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0134436705128197</v>
+      </c>
+      <c r="E98">
+        <v>0.07309207394766069</v>
+      </c>
+      <c r="F98">
+        <v>0.2355192575036077</v>
+      </c>
+      <c r="G98">
+        <v>-0.01491734563246305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.0109435977024949</v>
+        <v>0.009026912356233973</v>
       </c>
       <c r="C101">
-        <v>-0.004234648820274736</v>
+        <v>-0.02324705959908333</v>
       </c>
       <c r="D101">
-        <v>-0.01968521235519401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009065796773972888</v>
+      </c>
+      <c r="E101">
+        <v>0.004050313685093998</v>
+      </c>
+      <c r="F101">
+        <v>-0.01534357402209886</v>
+      </c>
+      <c r="G101">
+        <v>0.09494023553256949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.03985996639159053</v>
+        <v>0.1154905293982442</v>
       </c>
       <c r="C102">
-        <v>-0.03989125398615485</v>
+        <v>-0.08407372951198715</v>
       </c>
       <c r="D102">
-        <v>-0.134798410036272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.001099287394611005</v>
+      </c>
+      <c r="E102">
+        <v>-0.03614451030719115</v>
+      </c>
+      <c r="F102">
+        <v>-0.03931561358607259</v>
+      </c>
+      <c r="G102">
+        <v>0.01634905939705135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.7888015944558164</v>
+        <v>0.02105116426528913</v>
       </c>
       <c r="C104">
-        <v>0.5992481696146298</v>
+        <v>0.03051195744197075</v>
       </c>
       <c r="D104">
-        <v>0.03587217551601122</v>
+        <v>0.9878186798578784</v>
+      </c>
+      <c r="E104">
+        <v>-0.04969425182635829</v>
+      </c>
+      <c r="F104">
+        <v>-0.03364687700213732</v>
+      </c>
+      <c r="G104">
+        <v>-0.03699830581062372</v>
       </c>
     </row>
   </sheetData>
